--- a/data/Precipitation graphs .xlsx
+++ b/data/Precipitation graphs .xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\projects\2023 Quick Facts\Quick-Facts_final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4AD68E-9B0C-4CC7-88F5-A342887D1C7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F0B03-4C0D-4246-895E-AE5FABE83A35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="10710" activeTab="1" xr2:uid="{B5268F39-6C0A-4D1B-B87A-3D73A7BAA5C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="10710" xr2:uid="{B5268F39-6C0A-4D1B-B87A-3D73A7BAA5C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,34 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairfield </t>
-  </si>
-  <si>
-    <t>Hartford</t>
-  </si>
-  <si>
-    <t>Litchfield</t>
-  </si>
-  <si>
-    <t>Middlesex</t>
-  </si>
-  <si>
-    <t>New Haven</t>
-  </si>
-  <si>
-    <t>New London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tolland </t>
-  </si>
-  <si>
-    <t>Windham</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Month</t>
   </si>
@@ -65,15 +36,6 @@
     <t>2022 Precipitation Rank</t>
   </si>
   <si>
-    <t>Average Rainfall</t>
-  </si>
-  <si>
-    <t>Departure (in)</t>
-  </si>
-  <si>
-    <t>Percent of Normal</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -101,16 +63,10 @@
     <t>Sep</t>
   </si>
   <si>
-    <t>Year-to-Date_Precipitation</t>
-  </si>
-  <si>
-    <t>Normal- YTD_Precipitation</t>
-  </si>
-  <si>
-    <t>NewHaven</t>
-  </si>
-  <si>
-    <t>NewLondon</t>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Oct</t>
   </si>
 </sst>
 </file>
@@ -470,309 +426,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887F9820-A12C-4F55-A202-F11292191931}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>46.69</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40.989999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>52.71</v>
-      </c>
-      <c r="C3" s="1">
-        <v>41.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>50.9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>41.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45.99</v>
-      </c>
-      <c r="C5" s="1">
-        <v>41.410000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45.56</v>
-      </c>
-      <c r="C6" s="1">
-        <v>41.410000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>39.19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>39.64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>52.04</v>
-      </c>
-      <c r="C8" s="1">
-        <v>39.629999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50.43</v>
-      </c>
-      <c r="C9" s="1">
-        <v>39.65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1">
-        <v>46.69</v>
-      </c>
-      <c r="C18" s="1">
-        <v>52.71</v>
-      </c>
-      <c r="D18" s="1">
-        <v>50.9</v>
-      </c>
-      <c r="E18" s="1">
-        <v>45.99</v>
-      </c>
-      <c r="F18" s="1">
-        <v>45.56</v>
-      </c>
-      <c r="G18" s="1">
-        <v>39.19</v>
-      </c>
-      <c r="H18" s="1">
-        <v>52.04</v>
-      </c>
-      <c r="I18" s="1">
-        <v>50.43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1">
-        <v>40.989999999999995</v>
-      </c>
-      <c r="C19" s="1">
-        <v>41.22</v>
-      </c>
-      <c r="D19" s="1">
-        <v>41.22</v>
-      </c>
-      <c r="E19" s="1">
-        <v>41.410000000000004</v>
-      </c>
-      <c r="F19" s="1">
-        <v>41.410000000000004</v>
-      </c>
-      <c r="G19" s="1">
-        <v>39.64</v>
-      </c>
-      <c r="H19" s="1">
-        <v>39.629999999999995</v>
-      </c>
-      <c r="I19" s="1">
-        <v>39.65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE9EE89-B534-4D58-B23F-DBA70C110CCC}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73A19BA-563B-405E-9F33-ACEE4D44E55A}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1">
-        <v>46.69</v>
-      </c>
-      <c r="C2" s="1">
-        <v>52.71</v>
-      </c>
-      <c r="D2" s="1">
-        <v>50.9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45.99</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45.56</v>
-      </c>
-      <c r="G2" s="1">
-        <v>39.19</v>
-      </c>
-      <c r="H2" s="1">
-        <v>52.04</v>
-      </c>
-      <c r="I2" s="1">
-        <v>50.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
-        <v>40.989999999999995</v>
-      </c>
-      <c r="C3" s="1">
-        <v>41.22</v>
-      </c>
-      <c r="D3" s="1">
-        <v>41.22</v>
-      </c>
-      <c r="E3" s="1">
-        <v>41.410000000000004</v>
-      </c>
-      <c r="F3" s="1">
-        <v>41.410000000000004</v>
-      </c>
-      <c r="G3" s="1">
-        <v>39.64</v>
-      </c>
-      <c r="H3" s="1">
-        <v>39.629999999999995</v>
-      </c>
-      <c r="I3" s="1">
-        <v>39.65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73A19BA-563B-405E-9F33-ACEE4D44E55A}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -784,27 +443,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>117</v>
@@ -812,15 +465,13 @@
       <c r="C2" s="1">
         <v>35</v>
       </c>
-      <c r="D2" s="1">
-        <v>5.9</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>7</v>
@@ -828,15 +479,13 @@
       <c r="C3" s="1">
         <v>101</v>
       </c>
-      <c r="D3" s="1">
-        <v>1.29</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>62</v>
@@ -844,15 +493,13 @@
       <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
-        <v>3.72</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>89</v>
@@ -860,15 +507,13 @@
       <c r="C5" s="1">
         <v>88</v>
       </c>
-      <c r="D5" s="1">
-        <v>4.8</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
@@ -876,15 +521,13 @@
       <c r="C6" s="1">
         <v>31</v>
       </c>
-      <c r="D6" s="1">
-        <v>3.07</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>35</v>
@@ -892,15 +535,13 @@
       <c r="C7" s="1">
         <v>67</v>
       </c>
-      <c r="D7" s="1">
-        <v>2.4900000000000002</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>128</v>
@@ -908,15 +549,13 @@
       <c r="C8" s="1">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
-        <v>10.51</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>86</v>
@@ -924,27 +563,45 @@
       <c r="C9" s="1">
         <v>34</v>
       </c>
-      <c r="D9" s="1">
-        <v>4.9000000000000004</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1">
         <v>108</v>
       </c>
-      <c r="D10" s="1">
-        <v>9.4700000000000006</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,25 +609,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="c867d1a5-5827-4927-b797-91c0fe867b8f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E1862A7241CD5C4BB9A49AEC91EB145E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="886e3144d6cee8faf22c18b9e81acb9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="26e7f4b6-3714-4cf5-b0ae-a47b16f23eba" xmlns:ns4="c867d1a5-5827-4927-b797-91c0fe867b8f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c61be2c3ea34d5299ef19bcff063b94d" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1208,33 +846,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="c867d1a5-5827-4927-b797-91c0fe867b8f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E352F2F0-035E-4494-AF23-B9CE26A8F06B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="26e7f4b6-3714-4cf5-b0ae-a47b16f23eba"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c867d1a5-5827-4927-b797-91c0fe867b8f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28466381-824E-4169-A851-E7B5B6165452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9352B2D9-6F83-415E-A1DA-5B32894164B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1252,4 +883,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28466381-824E-4169-A851-E7B5B6165452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E352F2F0-035E-4494-AF23-B9CE26A8F06B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c867d1a5-5827-4927-b797-91c0fe867b8f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="26e7f4b6-3714-4cf5-b0ae-a47b16f23eba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>